--- a/natmiOut/OldD4/LR-pairs_lrc2p/Vcan-Selp.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Vcan-Selp.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T11"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.054796686333</v>
+        <v>3.243977666666667</v>
       </c>
       <c r="H2">
-        <v>1.054796686333</v>
+        <v>9.731933000000001</v>
       </c>
       <c r="I2">
-        <v>0.006267220475957194</v>
+        <v>0.0124341611854976</v>
       </c>
       <c r="J2">
-        <v>0.006267220475957194</v>
+        <v>0.01249584677475898</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>13.2927159299736</v>
+        <v>30.47780866666666</v>
       </c>
       <c r="N2">
-        <v>13.2927159299736</v>
+        <v>91.433426</v>
       </c>
       <c r="O2">
-        <v>0.9775852961207312</v>
+        <v>0.9838017987059956</v>
       </c>
       <c r="P2">
-        <v>0.9775852961207312</v>
+        <v>0.9848051540204799</v>
       </c>
       <c r="Q2">
-        <v>14.02111271530204</v>
+        <v>98.86933064360646</v>
       </c>
       <c r="R2">
-        <v>14.02111271530204</v>
+        <v>889.8239757924581</v>
       </c>
       <c r="S2">
-        <v>0.006126742584842523</v>
+        <v>0.01223275013969281</v>
       </c>
       <c r="T2">
-        <v>0.006126742584842523</v>
+        <v>0.01230597430763283</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,60 +593,60 @@
         <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.054796686333</v>
+        <v>3.243977666666667</v>
       </c>
       <c r="H3">
-        <v>1.054796686333</v>
+        <v>9.731933000000001</v>
       </c>
       <c r="I3">
-        <v>0.006267220475957194</v>
+        <v>0.0124341611854976</v>
       </c>
       <c r="J3">
-        <v>0.006267220475957194</v>
+        <v>0.01249584677475898</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>0.304783932925277</v>
+        <v>0.04441233333333333</v>
       </c>
       <c r="N3">
-        <v>0.304783932925277</v>
+        <v>0.133237</v>
       </c>
       <c r="O3">
-        <v>0.02241470387926884</v>
+        <v>0.001433598258192696</v>
       </c>
       <c r="P3">
-        <v>0.02241470387926884</v>
+        <v>0.001435060349879339</v>
       </c>
       <c r="Q3">
-        <v>0.3214850824971215</v>
+        <v>0.1440726174578889</v>
       </c>
       <c r="R3">
-        <v>0.3214850824971215</v>
+        <v>1.296653557121</v>
       </c>
       <c r="S3">
-        <v>0.0001404778911146708</v>
+        <v>1.782559181761658E-05</v>
       </c>
       <c r="T3">
-        <v>0.0001404778911146708</v>
+        <v>1.793229424462423E-05</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>25</v>
@@ -655,60 +655,60 @@
         <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>139.882835853992</v>
+        <v>3.243977666666667</v>
       </c>
       <c r="H4">
-        <v>139.882835853992</v>
+        <v>9.731933000000001</v>
       </c>
       <c r="I4">
-        <v>0.8311332263915838</v>
+        <v>0.0124341611854976</v>
       </c>
       <c r="J4">
-        <v>0.8311332263915838</v>
+        <v>0.01249584677475898</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>13.2927159299736</v>
+        <v>0.00569</v>
       </c>
       <c r="N4">
-        <v>13.2927159299736</v>
+        <v>0.01707</v>
       </c>
       <c r="O4">
-        <v>0.9775852961207312</v>
+        <v>0.0001836691179428336</v>
       </c>
       <c r="P4">
-        <v>0.9775852961207312</v>
+        <v>0.0001838564375694463</v>
       </c>
       <c r="Q4">
-        <v>1859.422800486242</v>
+        <v>0.01845823292333333</v>
       </c>
       <c r="R4">
-        <v>1859.422800486242</v>
+        <v>0.16612409631</v>
       </c>
       <c r="S4">
-        <v>0.8125036212377952</v>
+        <v>2.283771417299361E-06</v>
       </c>
       <c r="T4">
-        <v>0.8125036212377952</v>
+        <v>2.297441872420841E-06</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>25</v>
@@ -720,57 +720,57 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>139.882835853992</v>
+        <v>3.243977666666667</v>
       </c>
       <c r="H5">
-        <v>139.882835853992</v>
+        <v>9.731933000000001</v>
       </c>
       <c r="I5">
-        <v>0.8311332263915838</v>
+        <v>0.0124341611854976</v>
       </c>
       <c r="J5">
-        <v>0.8311332263915838</v>
+        <v>0.01249584677475898</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.304783932925277</v>
+        <v>0.3570223333333333</v>
       </c>
       <c r="N5">
-        <v>0.304783932925277</v>
+        <v>1.071067</v>
       </c>
       <c r="O5">
-        <v>0.02241470387926884</v>
+        <v>0.0115244247889676</v>
       </c>
       <c r="P5">
-        <v>0.02241470387926884</v>
+        <v>0.01153617826702954</v>
       </c>
       <c r="Q5">
-        <v>42.63404086032063</v>
+        <v>1.158172475834556</v>
       </c>
       <c r="R5">
-        <v>42.63404086032063</v>
+        <v>10.423552282511</v>
       </c>
       <c r="S5">
-        <v>0.01862960515378866</v>
+        <v>0.0001432965553961673</v>
       </c>
       <c r="T5">
-        <v>0.01862960515378866</v>
+        <v>0.0001441543159911056</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>25</v>
@@ -779,60 +779,60 @@
         <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>2.47720469682795</v>
+        <v>3.243977666666667</v>
       </c>
       <c r="H6">
-        <v>2.47720469682795</v>
+        <v>9.731933000000001</v>
       </c>
       <c r="I6">
-        <v>0.01471865450494613</v>
+        <v>0.0124341611854976</v>
       </c>
       <c r="J6">
-        <v>0.01471865450494613</v>
+        <v>0.01249584677475898</v>
       </c>
       <c r="K6">
         <v>1</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M6">
-        <v>13.2927159299736</v>
+        <v>0.0946895</v>
       </c>
       <c r="N6">
-        <v>13.2927159299736</v>
+        <v>0.189379</v>
       </c>
       <c r="O6">
-        <v>0.9775852961207312</v>
+        <v>0.003056509128901219</v>
       </c>
       <c r="P6">
-        <v>0.9775852961207312</v>
+        <v>0.002039750925041838</v>
       </c>
       <c r="Q6">
-        <v>32.92877833533031</v>
+        <v>0.3071706232678334</v>
       </c>
       <c r="R6">
-        <v>32.92877833533031</v>
+        <v>1.843023739607</v>
       </c>
       <c r="S6">
-        <v>0.0143887402227165</v>
+        <v>3.800512717370262E-05</v>
       </c>
       <c r="T6">
-        <v>0.0143887402227165</v>
+        <v>2.54884150179957E-05</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>25</v>
@@ -841,60 +841,60 @@
         <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>2.47720469682795</v>
+        <v>146.4311116666667</v>
       </c>
       <c r="H7">
-        <v>2.47720469682795</v>
+        <v>439.2933350000001</v>
       </c>
       <c r="I7">
-        <v>0.01471865450494613</v>
+        <v>0.5612702158044854</v>
       </c>
       <c r="J7">
-        <v>0.01471865450494613</v>
+        <v>0.5640546645083628</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.304783932925277</v>
+        <v>30.47780866666666</v>
       </c>
       <c r="N7">
-        <v>0.304783932925277</v>
+        <v>91.433426</v>
       </c>
       <c r="O7">
-        <v>0.02241470387926884</v>
+        <v>0.9838017987059956</v>
       </c>
       <c r="P7">
-        <v>0.02241470387926884</v>
+        <v>0.9848051540204799</v>
       </c>
       <c r="Q7">
-        <v>0.7550121901601911</v>
+        <v>4462.899404223968</v>
       </c>
       <c r="R7">
-        <v>0.7550121901601911</v>
+        <v>40166.09463801572</v>
       </c>
       <c r="S7">
-        <v>0.0003299142822296338</v>
+        <v>0.5521786478685551</v>
       </c>
       <c r="T7">
-        <v>0.0003299142822296338</v>
+        <v>0.5554839407571284</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>25</v>
@@ -903,60 +903,60 @@
         <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>21.6710238107955</v>
+        <v>146.4311116666667</v>
       </c>
       <c r="H8">
-        <v>21.6710238107955</v>
+        <v>439.2933350000001</v>
       </c>
       <c r="I8">
-        <v>0.1287613868357337</v>
+        <v>0.5612702158044854</v>
       </c>
       <c r="J8">
-        <v>0.1287613868357337</v>
+        <v>0.5640546645083628</v>
       </c>
       <c r="K8">
         <v>1</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>13.2927159299736</v>
+        <v>0.04441233333333333</v>
       </c>
       <c r="N8">
-        <v>13.2927159299736</v>
+        <v>0.133237</v>
       </c>
       <c r="O8">
-        <v>0.9775852961207312</v>
+        <v>0.001433598258192696</v>
       </c>
       <c r="P8">
-        <v>0.9775852961207312</v>
+        <v>0.001435060349879339</v>
       </c>
       <c r="Q8">
-        <v>288.0667634285985</v>
+        <v>6.503347341710556</v>
       </c>
       <c r="R8">
-        <v>288.0667634285985</v>
+        <v>58.53012607539501</v>
       </c>
       <c r="S8">
-        <v>0.1258752384787267</v>
+        <v>0.0008046360037527487</v>
       </c>
       <c r="T8">
-        <v>0.1258752384787267</v>
+        <v>0.0008094524842004445</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>25</v>
@@ -965,60 +965,60 @@
         <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>21.6710238107955</v>
+        <v>146.4311116666667</v>
       </c>
       <c r="H9">
-        <v>21.6710238107955</v>
+        <v>439.2933350000001</v>
       </c>
       <c r="I9">
-        <v>0.1287613868357337</v>
+        <v>0.5612702158044854</v>
       </c>
       <c r="J9">
-        <v>0.1287613868357337</v>
+        <v>0.5640546645083628</v>
       </c>
       <c r="K9">
         <v>1</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>0.304783932925277</v>
+        <v>0.00569</v>
       </c>
       <c r="N9">
-        <v>0.304783932925277</v>
+        <v>0.01707</v>
       </c>
       <c r="O9">
-        <v>0.02241470387926884</v>
+        <v>0.0001836691179428336</v>
       </c>
       <c r="P9">
-        <v>0.02241470387926884</v>
+        <v>0.0001838564375694463</v>
       </c>
       <c r="Q9">
-        <v>6.604979867571577</v>
+        <v>0.8331930253833334</v>
       </c>
       <c r="R9">
-        <v>6.604979867571577</v>
+        <v>7.49873722845</v>
       </c>
       <c r="S9">
-        <v>0.002886148357006956</v>
+        <v>0.0001030880054643937</v>
       </c>
       <c r="T9">
-        <v>0.002886148357006956</v>
+        <v>0.0001037050812109368</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
         <v>25</v>
@@ -1027,117 +1027,1047 @@
         <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>3.21788546607551</v>
+        <v>146.4311116666667</v>
       </c>
       <c r="H10">
-        <v>3.21788546607551</v>
+        <v>439.2933350000001</v>
       </c>
       <c r="I10">
-        <v>0.01911951179177927</v>
+        <v>0.5612702158044854</v>
       </c>
       <c r="J10">
-        <v>0.01911951179177927</v>
+        <v>0.5640546645083628</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>13.2927159299736</v>
+        <v>0.3570223333333333</v>
       </c>
       <c r="N10">
-        <v>13.2927159299736</v>
+        <v>1.071067</v>
       </c>
       <c r="O10">
-        <v>0.9775852961207312</v>
+        <v>0.0115244247889676</v>
       </c>
       <c r="P10">
-        <v>0.9775852961207312</v>
+        <v>0.01153617826702954</v>
       </c>
       <c r="Q10">
-        <v>42.77443739573246</v>
+        <v>52.27917715982723</v>
       </c>
       <c r="R10">
-        <v>42.77443739573246</v>
+        <v>470.5125944384451</v>
       </c>
       <c r="S10">
-        <v>0.01869095359665035</v>
+        <v>0.006468316388326407</v>
       </c>
       <c r="T10">
-        <v>0.01869095359665035</v>
+        <v>0.006507035162118012</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>24</v>
       </c>
-      <c r="B11" t="s">
-        <v>25</v>
-      </c>
-      <c r="C11" t="s">
-        <v>26</v>
-      </c>
-      <c r="D11" t="s">
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>146.4311116666667</v>
+      </c>
+      <c r="H11">
+        <v>439.2933350000001</v>
+      </c>
+      <c r="I11">
+        <v>0.5612702158044854</v>
+      </c>
+      <c r="J11">
+        <v>0.5640546645083628</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>0.5</v>
+      </c>
+      <c r="M11">
+        <v>0.0946895</v>
+      </c>
+      <c r="N11">
+        <v>0.189379</v>
+      </c>
+      <c r="O11">
+        <v>0.003056509128901219</v>
+      </c>
+      <c r="P11">
+        <v>0.002039750925041838</v>
+      </c>
+      <c r="Q11">
+        <v>13.86548874816083</v>
+      </c>
+      <c r="R11">
+        <v>83.19293248896501</v>
+      </c>
+      <c r="S11">
+        <v>0.001715527538386767</v>
+      </c>
+      <c r="T11">
+        <v>0.001150531023705097</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>5.967399666666666</v>
+      </c>
+      <c r="H12">
+        <v>17.902199</v>
+      </c>
+      <c r="I12">
+        <v>0.02287303333683595</v>
+      </c>
+      <c r="J12">
+        <v>0.0229865059320942</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>30.47780866666666</v>
+      </c>
+      <c r="N12">
+        <v>91.433426</v>
+      </c>
+      <c r="O12">
+        <v>0.9838017987059956</v>
+      </c>
+      <c r="P12">
+        <v>0.9848051540204799</v>
+      </c>
+      <c r="Q12">
+        <v>181.8732652781971</v>
+      </c>
+      <c r="R12">
+        <v>1636.859387503774</v>
+      </c>
+      <c r="S12">
+        <v>0.02250253133864141</v>
+      </c>
+      <c r="T12">
+        <v>0.02263722951484871</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>5.967399666666666</v>
+      </c>
+      <c r="H13">
+        <v>17.902199</v>
+      </c>
+      <c r="I13">
+        <v>0.02287303333683595</v>
+      </c>
+      <c r="J13">
+        <v>0.0229865059320942</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M13">
+        <v>0.04441233333333333</v>
+      </c>
+      <c r="N13">
+        <v>0.133237</v>
+      </c>
+      <c r="O13">
+        <v>0.001433598258192696</v>
+      </c>
+      <c r="P13">
+        <v>0.001435060349879339</v>
+      </c>
+      <c r="Q13">
+        <v>0.2650261431292222</v>
+      </c>
+      <c r="R13">
+        <v>2.385235288163</v>
+      </c>
+      <c r="S13">
+        <v>3.279074075127148E-05</v>
+      </c>
+      <c r="T13">
+        <v>3.298702324541461E-05</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>5.967399666666666</v>
+      </c>
+      <c r="H14">
+        <v>17.902199</v>
+      </c>
+      <c r="I14">
+        <v>0.02287303333683595</v>
+      </c>
+      <c r="J14">
+        <v>0.0229865059320942</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M14">
+        <v>0.00569</v>
+      </c>
+      <c r="N14">
+        <v>0.01707</v>
+      </c>
+      <c r="O14">
+        <v>0.0001836691179428336</v>
+      </c>
+      <c r="P14">
+        <v>0.0001838564375694463</v>
+      </c>
+      <c r="Q14">
+        <v>0.03395450410333333</v>
+      </c>
+      <c r="R14">
+        <v>0.30559053693</v>
+      </c>
+      <c r="S14">
+        <v>4.201069857653686E-06</v>
+      </c>
+      <c r="T14">
+        <v>4.226217092843785E-06</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
         <v>23</v>
       </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11">
-        <v>3.21788546607551</v>
-      </c>
-      <c r="H11">
-        <v>3.21788546607551</v>
-      </c>
-      <c r="I11">
-        <v>0.01911951179177927</v>
-      </c>
-      <c r="J11">
-        <v>0.01911951179177927</v>
-      </c>
-      <c r="K11">
-        <v>1</v>
-      </c>
-      <c r="L11">
-        <v>1</v>
-      </c>
-      <c r="M11">
-        <v>0.304783932925277</v>
-      </c>
-      <c r="N11">
-        <v>0.304783932925277</v>
-      </c>
-      <c r="O11">
-        <v>0.02241470387926884</v>
-      </c>
-      <c r="P11">
-        <v>0.02241470387926884</v>
-      </c>
-      <c r="Q11">
-        <v>0.980759788053582</v>
-      </c>
-      <c r="R11">
-        <v>0.980759788053582</v>
-      </c>
-      <c r="S11">
-        <v>0.0004285581951289212</v>
-      </c>
-      <c r="T11">
-        <v>0.0004285581951289212</v>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>5.967399666666666</v>
+      </c>
+      <c r="H15">
+        <v>17.902199</v>
+      </c>
+      <c r="I15">
+        <v>0.02287303333683595</v>
+      </c>
+      <c r="J15">
+        <v>0.0229865059320942</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>0.3570223333333333</v>
+      </c>
+      <c r="N15">
+        <v>1.071067</v>
+      </c>
+      <c r="O15">
+        <v>0.0115244247889676</v>
+      </c>
+      <c r="P15">
+        <v>0.01153617826702954</v>
+      </c>
+      <c r="Q15">
+        <v>2.130494952925889</v>
+      </c>
+      <c r="R15">
+        <v>19.174454576333</v>
+      </c>
+      <c r="S15">
+        <v>0.0002635985523859145</v>
+      </c>
+      <c r="T15">
+        <v>0.0002651764301687707</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>5.967399666666666</v>
+      </c>
+      <c r="H16">
+        <v>17.902199</v>
+      </c>
+      <c r="I16">
+        <v>0.02287303333683595</v>
+      </c>
+      <c r="J16">
+        <v>0.0229865059320942</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>0.5</v>
+      </c>
+      <c r="M16">
+        <v>0.0946895</v>
+      </c>
+      <c r="N16">
+        <v>0.189379</v>
+      </c>
+      <c r="O16">
+        <v>0.003056509128901219</v>
+      </c>
+      <c r="P16">
+        <v>0.002039750925041838</v>
+      </c>
+      <c r="Q16">
+        <v>0.5650500907368333</v>
+      </c>
+      <c r="R16">
+        <v>3.390300544421</v>
+      </c>
+      <c r="S16">
+        <v>6.9911635199701E-05</v>
+      </c>
+      <c r="T16">
+        <v>4.688674673846886E-05</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>101.3861963333333</v>
+      </c>
+      <c r="H17">
+        <v>304.158589</v>
+      </c>
+      <c r="I17">
+        <v>0.388613127687944</v>
+      </c>
+      <c r="J17">
+        <v>0.3905410285264901</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>30.47780866666666</v>
+      </c>
+      <c r="N17">
+        <v>91.433426</v>
+      </c>
+      <c r="O17">
+        <v>0.9838017987059956</v>
+      </c>
+      <c r="P17">
+        <v>0.9848051540204799</v>
+      </c>
+      <c r="Q17">
+        <v>3090.029093288435</v>
+      </c>
+      <c r="R17">
+        <v>27810.26183959591</v>
+      </c>
+      <c r="S17">
+        <v>0.3823182940201621</v>
+      </c>
+      <c r="T17">
+        <v>0.3846068177493467</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>101.3861963333333</v>
+      </c>
+      <c r="H18">
+        <v>304.158589</v>
+      </c>
+      <c r="I18">
+        <v>0.388613127687944</v>
+      </c>
+      <c r="J18">
+        <v>0.3905410285264901</v>
+      </c>
+      <c r="K18">
+        <v>1</v>
+      </c>
+      <c r="L18">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M18">
+        <v>0.04441233333333333</v>
+      </c>
+      <c r="N18">
+        <v>0.133237</v>
+      </c>
+      <c r="O18">
+        <v>0.001433598258192696</v>
+      </c>
+      <c r="P18">
+        <v>0.001435060349879339</v>
+      </c>
+      <c r="Q18">
+        <v>4.502797546954778</v>
+      </c>
+      <c r="R18">
+        <v>40.525177922593</v>
+      </c>
+      <c r="S18">
+        <v>0.0005571151029642522</v>
+      </c>
+      <c r="T18">
+        <v>0.0005604499450394619</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>101.3861963333333</v>
+      </c>
+      <c r="H19">
+        <v>304.158589</v>
+      </c>
+      <c r="I19">
+        <v>0.388613127687944</v>
+      </c>
+      <c r="J19">
+        <v>0.3905410285264901</v>
+      </c>
+      <c r="K19">
+        <v>1</v>
+      </c>
+      <c r="L19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M19">
+        <v>0.00569</v>
+      </c>
+      <c r="N19">
+        <v>0.01707</v>
+      </c>
+      <c r="O19">
+        <v>0.0001836691179428336</v>
+      </c>
+      <c r="P19">
+        <v>0.0001838564375694463</v>
+      </c>
+      <c r="Q19">
+        <v>0.5768874571366667</v>
+      </c>
+      <c r="R19">
+        <v>5.19198711423</v>
+      </c>
+      <c r="S19">
+        <v>7.137623038345042E-05</v>
+      </c>
+      <c r="T19">
+        <v>7.180348222958798E-05</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>101.3861963333333</v>
+      </c>
+      <c r="H20">
+        <v>304.158589</v>
+      </c>
+      <c r="I20">
+        <v>0.388613127687944</v>
+      </c>
+      <c r="J20">
+        <v>0.3905410285264901</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>0.3570223333333333</v>
+      </c>
+      <c r="N20">
+        <v>1.071067</v>
+      </c>
+      <c r="O20">
+        <v>0.0115244247889676</v>
+      </c>
+      <c r="P20">
+        <v>0.01153617826702954</v>
+      </c>
+      <c r="Q20">
+        <v>36.19713638271811</v>
+      </c>
+      <c r="R20">
+        <v>325.774227444463</v>
+      </c>
+      <c r="S20">
+        <v>0.004478542762045174</v>
+      </c>
+      <c r="T20">
+        <v>0.004505350925670658</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>101.3861963333333</v>
+      </c>
+      <c r="H21">
+        <v>304.158589</v>
+      </c>
+      <c r="I21">
+        <v>0.388613127687944</v>
+      </c>
+      <c r="J21">
+        <v>0.3905410285264901</v>
+      </c>
+      <c r="K21">
+        <v>1</v>
+      </c>
+      <c r="L21">
+        <v>0.5</v>
+      </c>
+      <c r="M21">
+        <v>0.0946895</v>
+      </c>
+      <c r="N21">
+        <v>0.189379</v>
+      </c>
+      <c r="O21">
+        <v>0.003056509128901219</v>
+      </c>
+      <c r="P21">
+        <v>0.002039750925041838</v>
+      </c>
+      <c r="Q21">
+        <v>9.600208237705166</v>
+      </c>
+      <c r="R21">
+        <v>57.601249426231</v>
+      </c>
+      <c r="S21">
+        <v>0.001187799572389056</v>
+      </c>
+      <c r="T21">
+        <v>0.0007966064242036991</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>3.8636755</v>
+      </c>
+      <c r="H22">
+        <v>7.727351000000001</v>
+      </c>
+      <c r="I22">
+        <v>0.01480946198523706</v>
+      </c>
+      <c r="J22">
+        <v>0.00992195425829386</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>30.47780866666666</v>
+      </c>
+      <c r="N22">
+        <v>91.433426</v>
+      </c>
+      <c r="O22">
+        <v>0.9838017987059956</v>
+      </c>
+      <c r="P22">
+        <v>0.9848051540204799</v>
+      </c>
+      <c r="Q22">
+        <v>117.7563626390877</v>
+      </c>
+      <c r="R22">
+        <v>706.538175834526</v>
+      </c>
+      <c r="S22">
+        <v>0.01456957533894429</v>
+      </c>
+      <c r="T22">
+        <v>0.009771191691523242</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>3.8636755</v>
+      </c>
+      <c r="H23">
+        <v>7.727351000000001</v>
+      </c>
+      <c r="I23">
+        <v>0.01480946198523706</v>
+      </c>
+      <c r="J23">
+        <v>0.00992195425829386</v>
+      </c>
+      <c r="K23">
+        <v>1</v>
+      </c>
+      <c r="L23">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M23">
+        <v>0.04441233333333333</v>
+      </c>
+      <c r="N23">
+        <v>0.133237</v>
+      </c>
+      <c r="O23">
+        <v>0.001433598258192696</v>
+      </c>
+      <c r="P23">
+        <v>0.001435060349879339</v>
+      </c>
+      <c r="Q23">
+        <v>0.1715948441978333</v>
+      </c>
+      <c r="R23">
+        <v>1.029569065187</v>
+      </c>
+      <c r="S23">
+        <v>2.123081890680679E-05</v>
+      </c>
+      <c r="T23">
+        <v>1.423860314939399E-05</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>3.8636755</v>
+      </c>
+      <c r="H24">
+        <v>7.727351000000001</v>
+      </c>
+      <c r="I24">
+        <v>0.01480946198523706</v>
+      </c>
+      <c r="J24">
+        <v>0.00992195425829386</v>
+      </c>
+      <c r="K24">
+        <v>1</v>
+      </c>
+      <c r="L24">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M24">
+        <v>0.00569</v>
+      </c>
+      <c r="N24">
+        <v>0.01707</v>
+      </c>
+      <c r="O24">
+        <v>0.0001836691179428336</v>
+      </c>
+      <c r="P24">
+        <v>0.0001838564375694463</v>
+      </c>
+      <c r="Q24">
+        <v>0.021984313595</v>
+      </c>
+      <c r="R24">
+        <v>0.13190588157</v>
+      </c>
+      <c r="S24">
+        <v>2.720040820036416E-06</v>
+      </c>
+      <c r="T24">
+        <v>1.824215163656907E-06</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>3.8636755</v>
+      </c>
+      <c r="H25">
+        <v>7.727351000000001</v>
+      </c>
+      <c r="I25">
+        <v>0.01480946198523706</v>
+      </c>
+      <c r="J25">
+        <v>0.00992195425829386</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>0.3570223333333333</v>
+      </c>
+      <c r="N25">
+        <v>1.071067</v>
+      </c>
+      <c r="O25">
+        <v>0.0115244247889676</v>
+      </c>
+      <c r="P25">
+        <v>0.01153617826702954</v>
+      </c>
+      <c r="Q25">
+        <v>1.379418442252833</v>
+      </c>
+      <c r="R25">
+        <v>8.276510653517001</v>
+      </c>
+      <c r="S25">
+        <v>0.0001706705308139393</v>
+      </c>
+      <c r="T25">
+        <v>0.0001144614330809908</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>3.8636755</v>
+      </c>
+      <c r="H26">
+        <v>7.727351000000001</v>
+      </c>
+      <c r="I26">
+        <v>0.01480946198523706</v>
+      </c>
+      <c r="J26">
+        <v>0.00992195425829386</v>
+      </c>
+      <c r="K26">
+        <v>1</v>
+      </c>
+      <c r="L26">
+        <v>0.5</v>
+      </c>
+      <c r="M26">
+        <v>0.0946895</v>
+      </c>
+      <c r="N26">
+        <v>0.189379</v>
+      </c>
+      <c r="O26">
+        <v>0.003056509128901219</v>
+      </c>
+      <c r="P26">
+        <v>0.002039750925041838</v>
+      </c>
+      <c r="Q26">
+        <v>0.36584950125725</v>
+      </c>
+      <c r="R26">
+        <v>1.463398005029</v>
+      </c>
+      <c r="S26">
+        <v>4.526525575199265E-05</v>
+      </c>
+      <c r="T26">
+        <v>2.023831537657771E-05</v>
       </c>
     </row>
   </sheetData>
